--- a/script_master_data/DED-NAUA_Plantilla_Adopcion IA.xlsx
+++ b/script_master_data/DED-NAUA_Plantilla_Adopcion IA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1792" documentId="13_ncr:1_{DFE0A30C-CFB8-48A3-9143-60D8C45831E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{952FAA34-AB7C-4B51-AE36-AA4A890A1748}"/>
+  <xr:revisionPtr revIDLastSave="1793" documentId="13_ncr:1_{DFE0A30C-CFB8-48A3-9143-60D8C45831E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{163C8C9E-32FF-4FF9-8E6E-9769461578FA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1438,7 +1436,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3310,7 +3308,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3372,7 +3370,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3518,7 +3516,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3695,7 +3693,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3845,7 +3843,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776388104"/>
@@ -3927,7 +3925,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3959,7 +3957,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776385544"/>
@@ -4024,7 +4022,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4056,7 +4054,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="114118151"/>
@@ -4116,7 +4114,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4146,7 +4144,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4222,7 +4220,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4273,7 +4271,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4421,7 +4419,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283272200"/>
@@ -4480,7 +4478,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283270152"/>
@@ -4521,7 +4519,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4597,7 +4595,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4611,17 +4609,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No aplica Prompt"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No aplica Prompt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4659,7 +4646,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4749,6 +4736,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No aplica Prompt"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No aplica Prompt</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -4757,17 +4765,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"Uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="70AD47"/>
@@ -4805,7 +4802,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4895,6 +4892,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"Uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -4903,17 +4921,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFD966"/>
@@ -4951,7 +4958,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5012,7 +5019,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!J14:J20</c:f>
+              <c:f>Reporte!$J$14:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5041,6 +5048,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -5065,17 +5093,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"Total de tareas"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total de tareas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -5117,7 +5134,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!F14:F20</c:f>
+              <c:f>Reporte!$F$14:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5147,6 +5164,27 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"Total de tareas"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total de tareas</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AAFA-4231-A5C1-836DA4DA0000}"/>
             </c:ext>
@@ -5171,17 +5209,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"% Uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>% Uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -5222,7 +5249,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5313,6 +5340,27 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"% Uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>% Uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -5372,7 +5420,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1838961159"/>
@@ -5431,7 +5479,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1400368647"/>
@@ -5473,7 +5521,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1400858119"/>
@@ -5533,7 +5581,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5572,7 +5620,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5602,7 +5650,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5686,7 +5734,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5700,17 +5748,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No aplica Propmt"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No aplica Propmt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5748,7 +5785,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5791,6 +5828,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No aplica Propmt"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No aplica Propmt</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-46A3-4B7C-B4D0-9B2450C1A3BB}"/>
             </c:ext>
@@ -5799,17 +5857,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"Uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="70AD47"/>
@@ -5847,7 +5894,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5879,7 +5926,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!F8</c:f>
+              <c:f>Reporte!$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5890,6 +5937,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"Uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-46A3-4B7C-B4D0-9B2450C1A3BB}"/>
             </c:ext>
@@ -5898,17 +5966,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFD966"/>
@@ -5946,7 +6003,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5989,6 +6046,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-46A3-4B7C-B4D0-9B2450C1A3BB}"/>
             </c:ext>
@@ -6059,7 +6137,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="684009991"/>
@@ -6111,7 +6189,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6141,7 +6219,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6217,7 +6295,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6653,7 +6731,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6803,7 +6881,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6953,7 +7031,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -7012,7 +7090,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -7054,7 +7132,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -7114,7 +7192,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7144,7 +7222,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7220,7 +7298,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7677,7 +7755,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7842,7 +7920,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7992,7 +8070,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -8051,7 +8129,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -8093,7 +8171,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -8153,7 +8231,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8183,7 +8261,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8259,7 +8337,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8695,7 +8773,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8845,7 +8923,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -8904,7 +8982,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -8946,7 +9024,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -9006,7 +9084,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9036,7 +9114,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9112,7 +9190,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9565,7 +9643,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9731,7 +9809,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9881,7 +9959,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -9940,7 +10018,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -9982,7 +10060,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -10042,7 +10120,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10072,7 +10150,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10148,7 +10226,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10584,7 +10662,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10734,7 +10812,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10884,7 +10962,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -10943,7 +11021,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -10985,7 +11063,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -11045,7 +11123,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11075,7 +11153,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11151,7 +11229,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11604,7 +11682,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11770,7 +11848,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11920,7 +11998,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -11979,7 +12057,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -12021,7 +12099,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -12081,7 +12159,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12111,7 +12189,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12187,7 +12265,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12623,7 +12701,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12773,7 +12851,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12923,7 +13001,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -12982,7 +13060,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -13024,7 +13102,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -13084,7 +13162,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13114,7 +13192,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13190,7 +13268,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13227,7 +13305,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -13316,7 +13394,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -13405,7 +13483,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -13494,7 +13572,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -13627,7 +13705,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -13659,7 +13737,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -13777,7 +13855,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -13809,7 +13887,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -13927,7 +14005,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -13986,7 +14064,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -14028,7 +14106,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069212168"/>
@@ -14088,7 +14166,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14118,7 +14196,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -21428,30 +21506,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BS197"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="AQ185" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="AQ6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="AR6" sqref="AR6:AS197"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
-    <col min="8" max="12" width="9.140625" style="1" customWidth="1"/>
-    <col min="13" max="42" width="9.140625" style="1"/>
-    <col min="43" max="43" width="94.42578125" style="133" customWidth="1"/>
-    <col min="44" max="44" width="29.140625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="7.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="1" customWidth="1"/>
+    <col min="8" max="12" width="9.1796875" style="1" customWidth="1"/>
+    <col min="13" max="42" width="9.1796875" style="1"/>
+    <col min="43" max="43" width="94.453125" style="133" customWidth="1"/>
+    <col min="44" max="44" width="29.1796875" style="1" customWidth="1"/>
+    <col min="45" max="45" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="12.75" customHeight="1">
+    <row r="1" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K1" s="1">
         <f>SUM(K6:K155)</f>
         <v>14.849999999999989</v>
@@ -21485,19 +21563,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:45" ht="18.600000000000001">
+    <row r="2" spans="2:45" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="2:45" ht="14.45">
+    <row r="3" spans="2:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="81" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="2:45" s="2" customFormat="1" ht="15.6">
+    <row r="4" spans="2:45" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H4" s="3"/>
       <c r="I4" s="4" t="s">
         <v>2</v>
@@ -21549,7 +21627,7 @@
       <c r="AP4" s="6"/>
       <c r="AQ4" s="134"/>
     </row>
-    <row r="5" spans="2:45" ht="39">
+    <row r="5" spans="2:45" ht="39" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -21683,7 +21761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:45">
+    <row r="6" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
@@ -21747,7 +21825,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="7" spans="2:45" ht="12.95">
+    <row r="7" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
@@ -21811,7 +21889,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="8" spans="2:45" ht="12.95">
+    <row r="8" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
@@ -21875,7 +21953,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="9" spans="2:45" ht="12.95">
+    <row r="9" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
@@ -21953,7 +22031,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="10" spans="2:45" ht="12.95">
+    <row r="10" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
@@ -22015,7 +22093,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="11" spans="2:45" ht="12.95">
+    <row r="11" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
@@ -22091,7 +22169,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="12" spans="2:45" ht="12.95">
+    <row r="12" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -22167,7 +22245,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="13" spans="2:45" ht="12.95">
+    <row r="13" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
@@ -22243,7 +22321,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="14" spans="2:45" ht="12.95">
+    <row r="14" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
@@ -22319,7 +22397,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="15" spans="2:45" ht="12.95">
+    <row r="15" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
@@ -22395,7 +22473,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="16" spans="2:45" ht="39">
+    <row r="16" spans="2:45" ht="39" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
@@ -22499,7 +22577,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="17" spans="2:45" ht="12.95">
+    <row r="17" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
@@ -22575,7 +22653,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="18" spans="2:45" ht="12.95">
+    <row r="18" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
@@ -22651,7 +22729,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="19" spans="2:45" ht="12.95">
+    <row r="19" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>22</v>
       </c>
@@ -22725,7 +22803,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="20" spans="2:45" ht="12.95">
+    <row r="20" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
@@ -22833,7 +22911,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="21" spans="2:45" ht="12.95">
+    <row r="21" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
@@ -22909,7 +22987,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="22" spans="2:45" ht="12.95">
+    <row r="22" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
@@ -22985,7 +23063,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="23" spans="2:45" ht="12.95">
+    <row r="23" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
@@ -23061,7 +23139,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="24" spans="2:45" ht="12.95">
+    <row r="24" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
         <v>22</v>
       </c>
@@ -23129,7 +23207,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="25" spans="2:45" ht="12.95">
+    <row r="25" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
         <v>22</v>
       </c>
@@ -23197,7 +23275,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="26" spans="2:45" ht="12.95">
+    <row r="26" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>22</v>
       </c>
@@ -23265,7 +23343,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="27" spans="2:45" ht="12.95">
+    <row r="27" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
         <v>22</v>
       </c>
@@ -23333,7 +23411,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="28" spans="2:45" ht="12.95">
+    <row r="28" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>22</v>
       </c>
@@ -23401,7 +23479,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="29" spans="2:45" ht="12.95">
+    <row r="29" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>22</v>
       </c>
@@ -23469,7 +23547,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="30" spans="2:45" ht="12.95">
+    <row r="30" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
         <v>22</v>
       </c>
@@ -23527,7 +23605,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="31" spans="2:45" ht="12.95">
+    <row r="31" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
         <v>22</v>
       </c>
@@ -23585,7 +23663,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="32" spans="2:45" ht="12.95">
+    <row r="32" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="9" t="s">
         <v>22</v>
       </c>
@@ -23653,7 +23731,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="33" spans="2:45" ht="12.95">
+    <row r="33" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
         <v>22</v>
       </c>
@@ -23721,7 +23799,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="34" spans="2:45" ht="12.95">
+    <row r="34" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B34" s="9" t="s">
         <v>22</v>
       </c>
@@ -23799,7 +23877,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="35" spans="2:45" ht="12.95">
+    <row r="35" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
         <v>22</v>
       </c>
@@ -23875,7 +23953,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="36" spans="2:45" ht="12.95">
+    <row r="36" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="9" t="s">
         <v>22</v>
       </c>
@@ -23947,7 +24025,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="37" spans="2:45" ht="12.95">
+    <row r="37" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="s">
         <v>22</v>
       </c>
@@ -24031,7 +24109,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="38" spans="2:45" ht="12.95">
+    <row r="38" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
         <v>22</v>
       </c>
@@ -24091,7 +24169,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="39" spans="2:45" ht="12.95">
+    <row r="39" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
         <v>22</v>
       </c>
@@ -24175,7 +24253,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="40" spans="2:45" ht="12.95">
+    <row r="40" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
         <v>22</v>
       </c>
@@ -24261,7 +24339,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="41" spans="2:45" ht="12.95">
+    <row r="41" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
         <v>22</v>
       </c>
@@ -24345,7 +24423,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="42" spans="2:45" ht="12.95">
+    <row r="42" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>22</v>
       </c>
@@ -24445,7 +24523,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="43" spans="2:45" ht="12.95">
+    <row r="43" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
         <v>22</v>
       </c>
@@ -24521,7 +24599,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="44" spans="2:45" ht="12.95">
+    <row r="44" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>22</v>
       </c>
@@ -24605,7 +24683,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="45" spans="2:45" ht="12.95">
+    <row r="45" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
         <v>22</v>
       </c>
@@ -24697,7 +24775,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="46" spans="2:45" ht="12.95">
+    <row r="46" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B46" s="9" t="s">
         <v>22</v>
       </c>
@@ -24755,7 +24833,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="47" spans="2:45" ht="12.95">
+    <row r="47" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
         <v>22</v>
       </c>
@@ -24813,7 +24891,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="48" spans="2:45" ht="12.95">
+    <row r="48" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B48" s="9" t="s">
         <v>22</v>
       </c>
@@ -24901,7 +24979,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="49" spans="2:45" ht="12.95">
+    <row r="49" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B49" s="9" t="s">
         <v>22</v>
       </c>
@@ -24997,7 +25075,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="50" spans="2:45" ht="39">
+    <row r="50" spans="2:45" ht="39" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
         <v>22</v>
       </c>
@@ -25093,7 +25171,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="51" spans="2:45" ht="12.95">
+    <row r="51" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B51" s="9" t="s">
         <v>22</v>
       </c>
@@ -25179,7 +25257,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="52" spans="2:45" ht="12.95">
+    <row r="52" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="9" t="s">
         <v>22</v>
       </c>
@@ -25267,7 +25345,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="53" spans="2:45" ht="12.95">
+    <row r="53" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B53" s="9" t="s">
         <v>22</v>
       </c>
@@ -25353,7 +25431,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="54" spans="2:45" ht="12.95">
+    <row r="54" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B54" s="9" t="s">
         <v>22</v>
       </c>
@@ -25443,7 +25521,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="55" spans="2:45" ht="12.95">
+    <row r="55" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B55" s="9" t="s">
         <v>22</v>
       </c>
@@ -25537,7 +25615,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="56" spans="2:45" ht="13.5">
+    <row r="56" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B56" s="9" t="s">
         <v>22</v>
       </c>
@@ -25631,7 +25709,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="57" spans="2:45" ht="27">
+    <row r="57" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B57" s="9" t="s">
         <v>22</v>
       </c>
@@ -25717,7 +25795,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="58" spans="2:45" ht="27">
+    <row r="58" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>22</v>
       </c>
@@ -25795,7 +25873,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="59" spans="2:45" ht="27">
+    <row r="59" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B59" s="9" t="s">
         <v>22</v>
       </c>
@@ -25881,7 +25959,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="60" spans="2:45" ht="27">
+    <row r="60" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B60" s="9" t="s">
         <v>22</v>
       </c>
@@ -25975,7 +26053,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="61" spans="2:45" ht="13.5">
+    <row r="61" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B61" s="9" t="s">
         <v>22</v>
       </c>
@@ -26077,7 +26155,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="62" spans="2:45" ht="27">
+    <row r="62" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B62" s="9" t="s">
         <v>22</v>
       </c>
@@ -26149,7 +26227,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="63" spans="2:45" ht="13.5">
+    <row r="63" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B63" s="9" t="s">
         <v>22</v>
       </c>
@@ -26243,7 +26321,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="64" spans="2:45" ht="27">
+    <row r="64" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B64" s="9" t="s">
         <v>22</v>
       </c>
@@ -26339,7 +26417,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="65" spans="2:45" ht="27">
+    <row r="65" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B65" s="9" t="s">
         <v>22</v>
       </c>
@@ -26411,7 +26489,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="66" spans="2:45" ht="27">
+    <row r="66" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B66" s="9" t="s">
         <v>22</v>
       </c>
@@ -26525,7 +26603,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="67" spans="2:45" ht="27">
+    <row r="67" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B67" s="9" t="s">
         <v>22</v>
       </c>
@@ -26597,7 +26675,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="68" spans="2:45" ht="13.5">
+    <row r="68" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B68" s="9" t="s">
         <v>22</v>
       </c>
@@ -26707,7 +26785,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="69" spans="2:45" ht="27">
+    <row r="69" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B69" s="9" t="s">
         <v>22</v>
       </c>
@@ -26775,7 +26853,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="70" spans="2:45" ht="27">
+    <row r="70" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B70" s="9" t="s">
         <v>22</v>
       </c>
@@ -26835,7 +26913,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="71" spans="2:45" ht="27">
+    <row r="71" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B71" s="9" t="s">
         <v>22</v>
       </c>
@@ -26919,7 +26997,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="72" spans="2:45" ht="27">
+    <row r="72" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B72" s="9" t="s">
         <v>22</v>
       </c>
@@ -26979,7 +27057,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="73" spans="2:45" ht="13.5">
+    <row r="73" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B73" s="9" t="s">
         <v>22</v>
       </c>
@@ -27039,7 +27117,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="74" spans="2:45" ht="27">
+    <row r="74" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B74" s="9" t="s">
         <v>22</v>
       </c>
@@ -27131,7 +27209,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="75" spans="2:45" ht="40.5">
+    <row r="75" spans="2:45" ht="39" x14ac:dyDescent="0.3">
       <c r="B75" s="9" t="s">
         <v>22</v>
       </c>
@@ -27219,7 +27297,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="76" spans="2:45" ht="27">
+    <row r="76" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B76" s="9" t="s">
         <v>22</v>
       </c>
@@ -27273,7 +27351,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="77" spans="2:45" ht="27">
+    <row r="77" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B77" s="9" t="s">
         <v>22</v>
       </c>
@@ -27373,7 +27451,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="78" spans="2:45" ht="13.5">
+    <row r="78" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B78" s="9" t="s">
         <v>22</v>
       </c>
@@ -27457,7 +27535,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="79" spans="2:45" ht="40.5">
+    <row r="79" spans="2:45" ht="39" x14ac:dyDescent="0.3">
       <c r="B79" s="9" t="s">
         <v>22</v>
       </c>
@@ -27549,7 +27627,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="80" spans="2:45" ht="27">
+    <row r="80" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B80" s="9" t="s">
         <v>22</v>
       </c>
@@ -27643,7 +27721,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="81" spans="2:45" ht="27">
+    <row r="81" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B81" s="9" t="s">
         <v>22</v>
       </c>
@@ -27727,7 +27805,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="82" spans="2:45" ht="13.5">
+    <row r="82" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B82" s="9" t="s">
         <v>22</v>
       </c>
@@ -27819,7 +27897,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="83" spans="2:45" ht="13.5">
+    <row r="83" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B83" s="9" t="s">
         <v>22</v>
       </c>
@@ -27899,7 +27977,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="84" spans="2:45" ht="27">
+    <row r="84" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B84" s="9" t="s">
         <v>22</v>
       </c>
@@ -27981,7 +28059,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="85" spans="2:45" ht="13.5">
+    <row r="85" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B85" s="9" t="s">
         <v>22</v>
       </c>
@@ -28081,7 +28159,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="86" spans="2:45" ht="27">
+    <row r="86" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B86" s="9" t="s">
         <v>22</v>
       </c>
@@ -28151,7 +28229,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="87" spans="2:45" ht="27">
+    <row r="87" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B87" s="9" t="s">
         <v>22</v>
       </c>
@@ -28243,7 +28321,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="88" spans="2:45" ht="27">
+    <row r="88" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B88" s="9" t="s">
         <v>22</v>
       </c>
@@ -28303,7 +28381,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="89" spans="2:45" ht="13.5">
+    <row r="89" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B89" s="9" t="s">
         <v>22</v>
       </c>
@@ -28379,7 +28457,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="90" spans="2:45" ht="27">
+    <row r="90" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B90" s="9" t="s">
         <v>22</v>
       </c>
@@ -28463,7 +28541,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="91" spans="2:45" ht="27">
+    <row r="91" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B91" s="9" t="s">
         <v>22</v>
       </c>
@@ -28567,7 +28645,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="92" spans="2:45" ht="27">
+    <row r="92" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B92" s="9" t="s">
         <v>22</v>
       </c>
@@ -28645,7 +28723,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="93" spans="2:45" ht="27">
+    <row r="93" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B93" s="9" t="s">
         <v>22</v>
       </c>
@@ -28751,7 +28829,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="94" spans="2:45" ht="27">
+    <row r="94" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B94" s="9" t="s">
         <v>22</v>
       </c>
@@ -28839,7 +28917,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="95" spans="2:45" ht="30.75">
+    <row r="95" spans="2:45" ht="29" x14ac:dyDescent="0.35">
       <c r="B95" s="9" t="s">
         <v>22</v>
       </c>
@@ -28917,7 +28995,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="96" spans="2:45" ht="53.25">
+    <row r="96" spans="2:45" ht="65.5" x14ac:dyDescent="0.35">
       <c r="B96" s="9" t="s">
         <v>22</v>
       </c>
@@ -29019,7 +29097,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="97" spans="2:45" ht="13.5">
+    <row r="97" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B97" s="9" t="s">
         <v>22</v>
       </c>
@@ -29103,7 +29181,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="98" spans="2:45" ht="13.5">
+    <row r="98" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B98" s="9" t="s">
         <v>22</v>
       </c>
@@ -29203,7 +29281,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="99" spans="2:45" ht="13.5">
+    <row r="99" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B99" s="9" t="s">
         <v>22</v>
       </c>
@@ -29295,7 +29373,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="100" spans="2:45" ht="27">
+    <row r="100" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B100" s="9" t="s">
         <v>22</v>
       </c>
@@ -29387,7 +29465,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="101" spans="2:45" ht="45.75" customHeight="1">
+    <row r="101" spans="2:45" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="9" t="s">
         <v>22</v>
       </c>
@@ -29463,7 +29541,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="102" spans="2:45">
+    <row r="102" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B102" s="9" t="s">
         <v>22</v>
       </c>
@@ -29533,7 +29611,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="103" spans="2:45">
+    <row r="103" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B103" s="9" t="s">
         <v>22</v>
       </c>
@@ -29603,7 +29681,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="104" spans="2:45">
+    <row r="104" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B104" s="9" t="s">
         <v>22</v>
       </c>
@@ -29693,7 +29771,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="105" spans="2:45" ht="27">
+    <row r="105" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B105" s="9" t="s">
         <v>22</v>
       </c>
@@ -29773,7 +29851,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="106" spans="2:45" ht="27">
+    <row r="106" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B106" s="9" t="s">
         <v>22</v>
       </c>
@@ -29875,7 +29953,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="107" spans="2:45" ht="13.5">
+    <row r="107" spans="2:45" ht="26" x14ac:dyDescent="0.3">
       <c r="B107" s="9" t="s">
         <v>22</v>
       </c>
@@ -29977,7 +30055,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="108" spans="2:45">
+    <row r="108" spans="2:45" ht="13" x14ac:dyDescent="0.3">
       <c r="B108" s="9" t="s">
         <v>22</v>
       </c>
@@ -30045,7 +30123,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="109" spans="2:45" ht="12.75" customHeight="1">
+    <row r="109" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="9" t="s">
         <v>22</v>
       </c>
@@ -30115,7 +30193,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="110" spans="2:45" ht="12.75" customHeight="1">
+    <row r="110" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="9" t="s">
         <v>22</v>
       </c>
@@ -30207,7 +30285,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="111" spans="2:45" ht="12.75" customHeight="1">
+    <row r="111" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="9" t="s">
         <v>22</v>
       </c>
@@ -30293,7 +30371,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="112" spans="2:45" ht="28.5" customHeight="1">
+    <row r="112" spans="2:45" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9" t="s">
         <v>22</v>
       </c>
@@ -30373,7 +30451,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="113" spans="2:71" ht="12.75" customHeight="1">
+    <row r="113" spans="2:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="9" t="s">
         <v>22</v>
       </c>
@@ -30447,7 +30525,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="114" spans="2:71" ht="12.75" customHeight="1">
+    <row r="114" spans="2:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="9" t="s">
         <v>22</v>
       </c>
@@ -30515,7 +30593,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="115" spans="2:71" ht="12.75" customHeight="1">
+    <row r="115" spans="2:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="9" t="s">
         <v>22</v>
       </c>
@@ -30585,7 +30663,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="116" spans="2:71" ht="12.75" customHeight="1">
+    <row r="116" spans="2:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="9" t="s">
         <v>22</v>
       </c>
@@ -30655,7 +30733,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="117" spans="2:71" ht="12.75" customHeight="1">
+    <row r="117" spans="2:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="9" t="s">
         <v>22</v>
       </c>
@@ -30723,7 +30801,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="118" spans="2:71" ht="12.75" customHeight="1">
+    <row r="118" spans="2:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="9" t="s">
         <v>22</v>
       </c>
@@ -30793,7 +30871,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="119" spans="2:71" ht="12.75" customHeight="1">
+    <row r="119" spans="2:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="9" t="s">
         <v>22</v>
       </c>
@@ -30863,7 +30941,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="120" spans="2:71" ht="12.75" customHeight="1">
+    <row r="120" spans="2:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="9" t="s">
         <v>22</v>
       </c>
@@ -30973,7 +31051,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="121" spans="2:71" ht="42.75" customHeight="1">
+    <row r="121" spans="2:71" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="9" t="s">
         <v>22</v>
       </c>
@@ -31051,7 +31129,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="122" spans="2:71" ht="12.75" customHeight="1">
+    <row r="122" spans="2:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="9" t="s">
         <v>22</v>
       </c>
@@ -31115,7 +31193,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="123" spans="2:71" ht="12.75" customHeight="1">
+    <row r="123" spans="2:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="9" t="s">
         <v>22</v>
       </c>
@@ -31227,7 +31305,7 @@
       <c r="BR123" s="105"/>
       <c r="BS123" s="105"/>
     </row>
-    <row r="124" spans="2:71" ht="12.75" customHeight="1">
+    <row r="124" spans="2:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="9" t="s">
         <v>22</v>
       </c>
@@ -31333,7 +31411,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="125" spans="2:71" ht="12.75" customHeight="1">
+    <row r="125" spans="2:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="9" t="s">
         <v>22</v>
       </c>
@@ -31401,7 +31479,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="126" spans="2:71" ht="12.75" customHeight="1">
+    <row r="126" spans="2:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9" t="s">
         <v>22</v>
       </c>
@@ -31495,7 +31573,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="127" spans="2:71" ht="12.75" customHeight="1">
+    <row r="127" spans="2:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="9" t="s">
         <v>22</v>
       </c>
@@ -31583,7 +31661,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="128" spans="2:71" ht="12.75" customHeight="1">
+    <row r="128" spans="2:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="9" t="s">
         <v>22</v>
       </c>
@@ -31673,7 +31751,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="129" spans="2:45" ht="12.75" customHeight="1">
+    <row r="129" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="9" t="s">
         <v>22</v>
       </c>
@@ -31759,7 +31837,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="130" spans="2:45" ht="27" customHeight="1">
+    <row r="130" spans="2:45" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="9" t="s">
         <v>22</v>
       </c>
@@ -31855,7 +31933,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="131" spans="2:45" ht="12.75" customHeight="1">
+    <row r="131" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="9" t="s">
         <v>22</v>
       </c>
@@ -31949,7 +32027,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="132" spans="2:45" ht="12.75" customHeight="1">
+    <row r="132" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="9" t="s">
         <v>22</v>
       </c>
@@ -32059,7 +32137,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="133" spans="2:45" ht="12.75" customHeight="1">
+    <row r="133" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="9" t="s">
         <v>22</v>
       </c>
@@ -32147,7 +32225,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="134" spans="2:45" ht="12.75" customHeight="1">
+    <row r="134" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="9" t="s">
         <v>22</v>
       </c>
@@ -32251,7 +32329,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="135" spans="2:45" ht="12.75" customHeight="1">
+    <row r="135" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="9" t="s">
         <v>22</v>
       </c>
@@ -32339,7 +32417,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="136" spans="2:45" ht="12.75" customHeight="1">
+    <row r="136" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="9" t="s">
         <v>22</v>
       </c>
@@ -32427,7 +32505,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="137" spans="2:45" ht="12.75" customHeight="1">
+    <row r="137" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="9" t="s">
         <v>22</v>
       </c>
@@ -32513,7 +32591,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="138" spans="2:45" ht="12.75" customHeight="1">
+    <row r="138" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="9" t="s">
         <v>22</v>
       </c>
@@ -32609,7 +32687,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="139" spans="2:45" ht="12.75" customHeight="1">
+    <row r="139" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="9" t="s">
         <v>22</v>
       </c>
@@ -32697,7 +32775,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="140" spans="2:45" ht="12.75" customHeight="1">
+    <row r="140" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9" t="s">
         <v>22</v>
       </c>
@@ -32779,7 +32857,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="141" spans="2:45" ht="12.75" customHeight="1">
+    <row r="141" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="9" t="s">
         <v>22</v>
       </c>
@@ -32865,7 +32943,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="142" spans="2:45" ht="12.75" customHeight="1">
+    <row r="142" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="9" t="s">
         <v>22</v>
       </c>
@@ -32951,7 +33029,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="143" spans="2:45" ht="26.25" customHeight="1">
+    <row r="143" spans="2:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="9" t="s">
         <v>22</v>
       </c>
@@ -33035,7 +33113,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="144" spans="2:45" ht="12.75" customHeight="1">
+    <row r="144" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="9" t="s">
         <v>22</v>
       </c>
@@ -33113,7 +33191,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="145" spans="2:45" ht="12.75" customHeight="1">
+    <row r="145" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="9" t="s">
         <v>22</v>
       </c>
@@ -33191,7 +33269,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="146" spans="2:45" ht="48" customHeight="1">
+    <row r="146" spans="2:45" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="9" t="s">
         <v>22</v>
       </c>
@@ -33275,7 +33353,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="147" spans="2:45" ht="19.5" customHeight="1">
+    <row r="147" spans="2:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="9" t="s">
         <v>22</v>
       </c>
@@ -33369,7 +33447,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="148" spans="2:45" ht="12.75" customHeight="1">
+    <row r="148" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="9" t="s">
         <v>22</v>
       </c>
@@ -33447,7 +33525,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="149" spans="2:45" ht="12.75" customHeight="1">
+    <row r="149" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="9" t="s">
         <v>22</v>
       </c>
@@ -33527,7 +33605,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="150" spans="2:45" ht="12.75" customHeight="1">
+    <row r="150" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="9" t="s">
         <v>22</v>
       </c>
@@ -33607,7 +33685,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="151" spans="2:45" ht="12.75" customHeight="1">
+    <row r="151" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="9" t="s">
         <v>22</v>
       </c>
@@ -33685,7 +33763,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="152" spans="2:45" ht="12.75" customHeight="1">
+    <row r="152" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="9" t="s">
         <v>22</v>
       </c>
@@ -33747,7 +33825,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="153" spans="2:45" ht="12.75" customHeight="1">
+    <row r="153" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="9" t="s">
         <v>22</v>
       </c>
@@ -33833,7 +33911,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="154" spans="2:45" ht="37.5" customHeight="1">
+    <row r="154" spans="2:45" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9" t="s">
         <v>22</v>
       </c>
@@ -33895,7 +33973,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="155" spans="2:45" ht="21.75" customHeight="1">
+    <row r="155" spans="2:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="9" t="s">
         <v>22</v>
       </c>
@@ -33981,7 +34059,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="156" spans="2:45" ht="24.75" customHeight="1">
+    <row r="156" spans="2:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="9" t="s">
         <v>22</v>
       </c>
@@ -34067,7 +34145,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="157" spans="2:45" ht="16.5" customHeight="1">
+    <row r="157" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="9" t="s">
         <v>22</v>
       </c>
@@ -34153,7 +34231,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="158" spans="2:45" ht="12.75" customHeight="1">
+    <row r="158" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="9" t="s">
         <v>22</v>
       </c>
@@ -34215,7 +34293,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="159" spans="2:45" ht="24.75" customHeight="1">
+    <row r="159" spans="2:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="9" t="s">
         <v>22</v>
       </c>
@@ -34287,7 +34365,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="160" spans="2:45" ht="23.25" customHeight="1">
+    <row r="160" spans="2:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="9" t="s">
         <v>22</v>
       </c>
@@ -34389,7 +34467,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="161" spans="2:45" ht="23.25" customHeight="1">
+    <row r="161" spans="2:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="9" t="s">
         <v>22</v>
       </c>
@@ -34491,7 +34569,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="162" spans="2:45" ht="25.5" customHeight="1">
+    <row r="162" spans="2:45" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="9" t="s">
         <v>22</v>
       </c>
@@ -34585,7 +34663,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="163" spans="2:45" ht="12.75" customHeight="1">
+    <row r="163" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="9" t="s">
         <v>22</v>
       </c>
@@ -34681,7 +34759,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="164" spans="2:45" ht="25.5" customHeight="1">
+    <row r="164" spans="2:45" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="9" t="s">
         <v>22</v>
       </c>
@@ -34753,7 +34831,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="165" spans="2:45" ht="22.5" customHeight="1">
+    <row r="165" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="9" t="s">
         <v>22</v>
       </c>
@@ -34825,7 +34903,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="166" spans="2:45" ht="12.75" customHeight="1">
+    <row r="166" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="9" t="s">
         <v>22</v>
       </c>
@@ -34897,7 +34975,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="167" spans="2:45" ht="12.75" customHeight="1">
+    <row r="167" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="9" t="s">
         <v>22</v>
       </c>
@@ -34969,7 +35047,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="168" spans="2:45" ht="12.75" customHeight="1">
+    <row r="168" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9" t="s">
         <v>22</v>
       </c>
@@ -35053,7 +35131,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="169" spans="2:45" ht="12.75" customHeight="1">
+    <row r="169" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="9" t="s">
         <v>22</v>
       </c>
@@ -35163,7 +35241,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="170" spans="2:45" ht="22.5" customHeight="1">
+    <row r="170" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="9" t="s">
         <v>22</v>
       </c>
@@ -35257,7 +35335,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="171" spans="2:45" ht="24.75">
+    <row r="171" spans="2:45" ht="24" x14ac:dyDescent="0.3">
       <c r="B171" s="9" t="s">
         <v>22</v>
       </c>
@@ -35329,7 +35407,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="172" spans="2:45" ht="12.75" customHeight="1">
+    <row r="172" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="9" t="s">
         <v>22</v>
       </c>
@@ -35401,7 +35479,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="173" spans="2:45" ht="12.75" customHeight="1">
+    <row r="173" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="9" t="s">
         <v>22</v>
       </c>
@@ -35473,7 +35551,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="174" spans="2:45" ht="12.75" customHeight="1">
+    <row r="174" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="9" t="s">
         <v>22</v>
       </c>
@@ -35549,7 +35627,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="175" spans="2:45" ht="12.75" customHeight="1">
+    <row r="175" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="9" t="s">
         <v>22</v>
       </c>
@@ -35611,7 +35689,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="176" spans="2:45" ht="12.75" customHeight="1">
+    <row r="176" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="9" t="s">
         <v>22</v>
       </c>
@@ -35673,7 +35751,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="177" spans="2:45" ht="12.75" customHeight="1">
+    <row r="177" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="9" t="s">
         <v>22</v>
       </c>
@@ -35735,7 +35813,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="178" spans="2:45" ht="12.75" customHeight="1">
+    <row r="178" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="9" t="s">
         <v>22</v>
       </c>
@@ -35797,7 +35875,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="179" spans="2:45" ht="12.75" customHeight="1">
+    <row r="179" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="9" t="s">
         <v>22</v>
       </c>
@@ -35859,7 +35937,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="180" spans="2:45" ht="12.75" customHeight="1">
+    <row r="180" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR180" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35869,7 +35947,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="2:45" ht="12.75" customHeight="1">
+    <row r="181" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR181" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35879,7 +35957,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:45" ht="12.75" customHeight="1">
+    <row r="182" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR182" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35889,7 +35967,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="2:45" ht="12.75" customHeight="1">
+    <row r="183" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR183" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35899,7 +35977,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="2:45" ht="12.75" customHeight="1">
+    <row r="184" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR184" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35909,7 +35987,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="2:45" ht="12.75" customHeight="1">
+    <row r="185" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR185" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35919,7 +35997,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:45" ht="12.75" customHeight="1">
+    <row r="186" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR186" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35929,7 +36007,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="2:45" ht="12.75" customHeight="1">
+    <row r="187" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR187" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35939,7 +36017,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="2:45" ht="12.75" customHeight="1">
+    <row r="188" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR188" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35949,7 +36027,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="2:45" ht="12.75" customHeight="1">
+    <row r="189" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR189" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35959,7 +36037,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="2:45" ht="12.75" customHeight="1">
+    <row r="190" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR190" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35969,7 +36047,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:45" ht="12.75" customHeight="1">
+    <row r="191" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR191" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35979,7 +36057,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="2:45" ht="12.75" customHeight="1">
+    <row r="192" spans="2:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR192" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35989,7 +36067,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="44:45" ht="12.75" customHeight="1">
+    <row r="193" spans="44:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR193" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -35999,7 +36077,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="44:45" ht="12.75" customHeight="1">
+    <row r="194" spans="44:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR194" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -36009,7 +36087,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="44:45" ht="12.75" customHeight="1">
+    <row r="195" spans="44:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR195" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -36019,7 +36097,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="44:45" ht="12.75" customHeight="1">
+    <row r="196" spans="44:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR196" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -36029,7 +36107,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="44:45" ht="12.75" customHeight="1">
+    <row r="197" spans="44:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AR197" s="27" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -36264,77 +36342,77 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="94" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="94" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>10</v>
       </c>
@@ -36352,25 +36430,25 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="12" width="37.28515625" customWidth="1"/>
+    <col min="3" max="12" width="37.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E3" s="169" t="s">
         <v>397</v>
       </c>
       <c r="F3" s="169"/>
       <c r="G3" s="169"/>
     </row>
-    <row r="5" spans="3:12" ht="18.600000000000001">
+    <row r="5" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="J5" s="170" t="s">
         <v>398</v>
       </c>
       <c r="K5" s="171"/>
     </row>
-    <row r="6" spans="3:12" ht="18.600000000000001">
+    <row r="6" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C6" s="29" t="s">
         <v>399</v>
       </c>
@@ -36402,7 +36480,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C7" s="172" t="s">
         <v>409</v>
       </c>
@@ -36416,7 +36494,7 @@
       <c r="K7" s="78"/>
       <c r="L7" s="79"/>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C8" s="173"/>
       <c r="D8" s="78"/>
       <c r="E8" s="78"/>
@@ -36428,7 +36506,7 @@
       <c r="K8" s="78"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C9" s="173"/>
       <c r="D9" s="78"/>
       <c r="E9" s="78"/>
@@ -36440,7 +36518,7 @@
       <c r="K9" s="78"/>
       <c r="L9" s="80"/>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C10" s="173"/>
       <c r="D10" s="78"/>
       <c r="E10" s="78"/>
@@ -36452,7 +36530,7 @@
       <c r="K10" s="78"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C11" s="173"/>
       <c r="D11" s="78"/>
       <c r="E11" s="78"/>
@@ -36464,7 +36542,7 @@
       <c r="K11" s="78"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C12" s="173"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -36476,7 +36554,7 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C13" s="173"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -36488,7 +36566,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C14" s="173"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -36500,7 +36578,7 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C15" s="173"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -36512,7 +36590,7 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C16" s="173"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -36524,7 +36602,7 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="173"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -36536,7 +36614,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="173"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -36548,7 +36626,7 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="173"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -36560,7 +36638,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>410</v>
       </c>
@@ -36579,91 +36657,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED98BEE-9FDE-48A4-86A8-C4DE755C63D7}">
   <dimension ref="B1:BN81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="16" width="9.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.5703125" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.7109375" customWidth="1"/>
-    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" customWidth="1"/>
-    <col min="44" max="44" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.7109375" customWidth="1"/>
-    <col min="47" max="47" width="19.42578125" customWidth="1"/>
-    <col min="48" max="48" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.5703125" customWidth="1"/>
-    <col min="52" max="52" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.7109375" customWidth="1"/>
-    <col min="55" max="55" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.28515625" customWidth="1"/>
-    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.7109375" customWidth="1"/>
-    <col min="63" max="63" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.140625" customWidth="1"/>
-    <col min="68" max="68" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.7109375" customWidth="1"/>
-    <col min="71" max="71" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" customWidth="1"/>
+    <col min="9" max="10" width="13.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" customWidth="1"/>
+    <col min="14" max="14" width="15.7265625" customWidth="1"/>
+    <col min="15" max="16" width="9.453125" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.26953125" customWidth="1"/>
+    <col min="20" max="20" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" customWidth="1"/>
+    <col min="23" max="23" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.26953125" customWidth="1"/>
+    <col min="28" max="28" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.7265625" customWidth="1"/>
+    <col min="31" max="31" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.54296875" customWidth="1"/>
+    <col min="36" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.7265625" customWidth="1"/>
+    <col min="39" max="39" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.81640625" customWidth="1"/>
+    <col min="44" max="44" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.7265625" customWidth="1"/>
+    <col min="47" max="47" width="19.453125" customWidth="1"/>
+    <col min="48" max="48" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.54296875" customWidth="1"/>
+    <col min="52" max="52" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.7265625" customWidth="1"/>
+    <col min="55" max="55" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.26953125" customWidth="1"/>
+    <col min="60" max="60" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.7265625" customWidth="1"/>
+    <col min="63" max="63" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.1796875" customWidth="1"/>
+    <col min="68" max="68" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.7265625" customWidth="1"/>
+    <col min="71" max="71" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14"/>
-    <row r="2" spans="2:14" ht="23.25">
+    <row r="1" spans="2:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="64" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="2:14"/>
-    <row r="4" spans="2:14">
+    <row r="3" spans="2:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C4" s="22" t="s">
         <v>412</v>
       </c>
@@ -36672,10 +36750,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C7" s="17"/>
       <c r="D7" s="20" t="s">
         <v>20</v>
@@ -36694,7 +36772,7 @@
       </c>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C8" s="91" t="s">
         <v>417</v>
       </c>
@@ -36719,7 +36797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1">
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="156">
         <f>D8/$D$4</f>
         <v>0.71264367816091956</v>
@@ -36741,20 +36819,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.75">
+    <row r="10" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C10" s="63" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C11" s="24" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C13" s="20" t="s">
         <v>420</v>
       </c>
@@ -36792,7 +36870,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C14" s="18" t="s">
         <v>2</v>
       </c>
@@ -36841,7 +36919,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C15" s="18" t="s">
         <v>431</v>
       </c>
@@ -36890,7 +36968,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C16" s="18" t="s">
         <v>432</v>
       </c>
@@ -36939,7 +37017,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C17" s="18" t="s">
         <v>4</v>
       </c>
@@ -36988,7 +37066,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C18" s="18" t="s">
         <v>3</v>
       </c>
@@ -37037,7 +37115,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C19" s="18" t="s">
         <v>433</v>
       </c>
@@ -37086,7 +37164,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C20" s="18" t="s">
         <v>434</v>
       </c>
@@ -37135,10 +37213,10 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C22" s="73" t="s">
         <v>435</v>
       </c>
@@ -37171,13 +37249,13 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="3:14"/>
-    <row r="24" spans="3:14" ht="18.75">
+    <row r="23" spans="3:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="3:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C24" s="63" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C25" s="84" t="s">
         <v>420</v>
       </c>
@@ -37197,7 +37275,7 @@
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C26" s="87" t="s">
         <v>2</v>
       </c>
@@ -37210,12 +37288,12 @@
         <v>13.150000000000015</v>
       </c>
       <c r="F26" s="88">
-        <f>IFERROR((D26-E26)/D26,0)</f>
+        <f t="shared" ref="F26:F33" si="8">IFERROR((D26-E26)/D26,0)</f>
         <v>0.30238726790450776</v>
       </c>
       <c r="H26" s="92"/>
     </row>
-    <row r="27" spans="3:14">
+    <row r="27" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C27" s="87" t="s">
         <v>3</v>
       </c>
@@ -37228,12 +37306,12 @@
         <v>19.100000000000001</v>
       </c>
       <c r="F27" s="88">
-        <f>IFERROR((D27-E27)/D27,0)</f>
+        <f t="shared" si="8"/>
         <v>0.34137931034482755</v>
       </c>
       <c r="H27" s="92"/>
     </row>
-    <row r="28" spans="3:14">
+    <row r="28" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C28" s="87" t="s">
         <v>4</v>
       </c>
@@ -37246,12 +37324,12 @@
         <v>132.60624999999999</v>
       </c>
       <c r="F28" s="88">
-        <f>IFERROR((D28-E28)/D28,0)</f>
+        <f t="shared" si="8"/>
         <v>0.28730265367819957</v>
       </c>
       <c r="H28" s="92"/>
     </row>
-    <row r="29" spans="3:14">
+    <row r="29" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C29" s="87" t="s">
         <v>432</v>
       </c>
@@ -37264,12 +37342,12 @@
         <v>63.913888888888891</v>
       </c>
       <c r="F29" s="88">
-        <f>IFERROR((D29-E29)/D29,0)</f>
+        <f t="shared" si="8"/>
         <v>0.37492529204020641</v>
       </c>
       <c r="H29" s="92"/>
     </row>
-    <row r="30" spans="3:14">
+    <row r="30" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C30" s="87" t="s">
         <v>434</v>
       </c>
@@ -37282,12 +37360,12 @@
         <v>38.25</v>
       </c>
       <c r="F30" s="88">
-        <f>IFERROR((D30-E30)/D30,0)</f>
+        <f t="shared" si="8"/>
         <v>0.21938775510204081</v>
       </c>
       <c r="H30" s="92"/>
     </row>
-    <row r="31" spans="3:14">
+    <row r="31" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C31" s="87" t="s">
         <v>431</v>
       </c>
@@ -37300,12 +37378,12 @@
         <v>112.67083333333333</v>
       </c>
       <c r="F31" s="88">
-        <f>IFERROR((D31-E31)/D31,0)</f>
+        <f t="shared" si="8"/>
         <v>0.39844723260366616</v>
       </c>
       <c r="H31" s="92"/>
     </row>
-    <row r="32" spans="3:14">
+    <row r="32" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C32" s="89" t="s">
         <v>433</v>
       </c>
@@ -37318,12 +37396,12 @@
         <v>16</v>
       </c>
       <c r="F32" s="90">
-        <f ca="1">IFERROR((D32-E32)/D32,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="H32" s="92"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C33" s="73" t="s">
         <v>440</v>
       </c>
@@ -37332,11 +37410,11 @@
         <v>595.46249999999998</v>
       </c>
       <c r="E33" s="74">
-        <f t="shared" ref="E33" ca="1" si="8">SUM(E26:E32)</f>
+        <f t="shared" ref="E33" ca="1" si="9">SUM(E26:E32)</f>
         <v>395.69097222222223</v>
       </c>
       <c r="F33" s="76">
-        <f ca="1">IFERROR((D33-E33)/D33,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0.33548968705464705</v>
       </c>
       <c r="H33" s="92"/>
@@ -37346,46 +37424,46 @@
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
     </row>
-    <row r="34" spans="2:13"/>
-    <row r="35" spans="2:13"/>
-    <row r="36" spans="2:13"/>
-    <row r="37" spans="2:13" ht="23.25">
+    <row r="34" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="64" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="23.25">
+    <row r="38" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="64"/>
     </row>
-    <row r="39" spans="2:13" ht="23.25">
+    <row r="39" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="64"/>
     </row>
-    <row r="40" spans="2:13" ht="23.25">
+    <row r="40" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="64"/>
     </row>
-    <row r="41" spans="2:13" ht="23.25">
+    <row r="41" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="64"/>
     </row>
-    <row r="42" spans="2:13" ht="23.25">
+    <row r="42" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="64"/>
     </row>
-    <row r="43" spans="2:13" ht="23.25">
+    <row r="43" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="64"/>
     </row>
-    <row r="44" spans="2:13" ht="23.25">
+    <row r="44" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="64"/>
     </row>
-    <row r="45" spans="2:13" ht="23.25">
+    <row r="45" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="64"/>
     </row>
-    <row r="46" spans="2:13" ht="23.25">
+    <row r="46" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="64"/>
     </row>
-    <row r="47" spans="2:13" ht="23.25">
+    <row r="47" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="64"/>
     </row>
-    <row r="48" spans="2:13"/>
-    <row r="49" spans="3:66" ht="14.45" customHeight="1">
+    <row r="48" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="3:66" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D49" s="183" t="s">
         <v>442</v>
       </c>
@@ -37466,7 +37544,7 @@
       <c r="BM49" s="181"/>
       <c r="BN49" s="182"/>
     </row>
-    <row r="50" spans="3:66">
+    <row r="50" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C50" s="20" t="s">
         <v>10</v>
       </c>
@@ -37660,7 +37738,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="51" spans="3:66">
+    <row r="51" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C51" s="18" t="str" cm="1">
         <f t="array" ref="C51:C58">_xlfn.UNIQUE(AdopcionIA!$D$6:$D$508)</f>
         <v>SP20</v>
@@ -37674,7 +37752,7 @@
         <v>33.6</v>
       </c>
       <c r="F51" s="55">
-        <f>IFERROR((D51-E51)/D51,0)</f>
+        <f t="shared" ref="F51:F57" si="10">IFERROR((D51-E51)/D51,0)</f>
         <v>9.9195710455763975E-2</v>
       </c>
       <c r="G51" s="42">
@@ -37702,7 +37780,7 @@
         <v>1.3499999999999999</v>
       </c>
       <c r="M51" s="55">
-        <f>IFERROR((K51-L51)/K51,0)</f>
+        <f t="shared" ref="M51:M57" si="11">IFERROR((K51-L51)/K51,0)</f>
         <v>0.25</v>
       </c>
       <c r="N51" s="21">
@@ -37734,7 +37812,7 @@
         <v>2</v>
       </c>
       <c r="U51" s="56">
-        <f t="shared" ref="U51:U57" si="9">IFERROR((S51-T51)/S51,0)</f>
+        <f t="shared" ref="U51:U57" si="12">IFERROR((S51-T51)/S51,0)</f>
         <v>0.2</v>
       </c>
       <c r="V51" s="45">
@@ -37918,7 +37996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:66">
+    <row r="52" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C52" s="18" t="str">
         <v>SP21</v>
       </c>
@@ -37931,7 +38009,7 @@
         <v>50.199999999999996</v>
       </c>
       <c r="F52" s="55">
-        <f>IFERROR((D52-E52)/D52,0)</f>
+        <f t="shared" si="10"/>
         <v>0.32707774798927614</v>
       </c>
       <c r="G52" s="42">
@@ -37959,7 +38037,7 @@
         <v>0.6</v>
       </c>
       <c r="M52" s="55">
-        <f>IFERROR((K52-L52)/K52,0)</f>
+        <f t="shared" si="11"/>
         <v>0.25000000000000006</v>
       </c>
       <c r="N52" s="21">
@@ -37991,7 +38069,7 @@
         <v>1.4</v>
       </c>
       <c r="U52" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6.6666666666666721E-2</v>
       </c>
       <c r="V52" s="45">
@@ -38023,7 +38101,7 @@
         <v>20.149999999999999</v>
       </c>
       <c r="AC52" s="55">
-        <f t="shared" ref="AC52:AC55" si="10">IFERROR((AA52-AB52)/AA52,0)</f>
+        <f t="shared" ref="AC52:AC55" si="13">IFERROR((AA52-AB52)/AA52,0)</f>
         <v>0.35000000000000003</v>
       </c>
       <c r="AD52" s="50">
@@ -38055,7 +38133,7 @@
         <v>0.9</v>
       </c>
       <c r="AK52" s="55">
-        <f t="shared" ref="AK52:AK55" si="11">IFERROR((AI52-AJ52)/AI52,0)</f>
+        <f t="shared" ref="AK52:AK55" si="14">IFERROR((AI52-AJ52)/AI52,0)</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="AL52" s="54">
@@ -38087,7 +38165,7 @@
         <v>5</v>
       </c>
       <c r="AS52" s="55">
-        <f t="shared" ref="AS52:AS55" si="12">IFERROR((AQ52-AR52)/AQ52,0)</f>
+        <f t="shared" ref="AS52:AS55" si="15">IFERROR((AQ52-AR52)/AQ52,0)</f>
         <v>0</v>
       </c>
       <c r="AT52" s="62">
@@ -38119,7 +38197,7 @@
         <v>22.15</v>
       </c>
       <c r="BA52" s="55">
-        <f t="shared" ref="BA52:BA55" si="13">IFERROR((AY52-AZ52)/AY52,0)</f>
+        <f t="shared" ref="BA52:BA55" si="16">IFERROR((AY52-AZ52)/AY52,0)</f>
         <v>0.37252124645892348</v>
       </c>
       <c r="BB52" s="68">
@@ -38151,7 +38229,7 @@
         <v>0</v>
       </c>
       <c r="BI52" s="55">
-        <f t="shared" ref="BI52:BI55" si="14">IFERROR((BG52-BH52)/BG52,0)</f>
+        <f t="shared" ref="BI52:BI55" si="17">IFERROR((BG52-BH52)/BG52,0)</f>
         <v>0</v>
       </c>
       <c r="BJ52" s="72">
@@ -38175,7 +38253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:66">
+    <row r="53" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C53" s="18" t="str">
         <v>SP22</v>
       </c>
@@ -38188,7 +38266,7 @@
         <v>106.5</v>
       </c>
       <c r="F53" s="55">
-        <f>IFERROR((D53-E53)/D53,0)</f>
+        <f t="shared" si="10"/>
         <v>0.29470198675496689</v>
       </c>
       <c r="G53" s="42">
@@ -38216,7 +38294,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="55">
-        <f>IFERROR((K53-L53)/K53,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N53" s="21">
@@ -38248,7 +38326,7 @@
         <v>3</v>
       </c>
       <c r="U53" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="V53" s="45">
@@ -38280,7 +38358,7 @@
         <v>56</v>
       </c>
       <c r="AC53" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.15151515151515152</v>
       </c>
       <c r="AD53" s="50">
@@ -38312,7 +38390,7 @@
         <v>11</v>
       </c>
       <c r="AK53" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.3888888888888889</v>
       </c>
       <c r="AL53" s="54">
@@ -38344,7 +38422,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT53" s="62">
@@ -38376,7 +38454,7 @@
         <v>32.5</v>
       </c>
       <c r="BA53" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.42982456140350878</v>
       </c>
       <c r="BB53" s="68">
@@ -38408,7 +38486,7 @@
         <v>4</v>
       </c>
       <c r="BI53" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="BJ53" s="72">
@@ -38432,7 +38510,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="3:66">
+    <row r="54" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C54" s="18" t="str">
         <v>SP23</v>
       </c>
@@ -38445,7 +38523,7 @@
         <v>46.590972222222227</v>
       </c>
       <c r="F54" s="55">
-        <f>IFERROR((D54-E54)/D54,0)</f>
+        <f t="shared" si="10"/>
         <v>0.48468439405809782</v>
       </c>
       <c r="G54" s="42">
@@ -38473,7 +38551,7 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="M54" s="55">
-        <f>IFERROR((K54-L54)/K54,0)</f>
+        <f t="shared" si="11"/>
         <v>0.40425531914893614</v>
       </c>
       <c r="N54" s="21">
@@ -38505,7 +38583,7 @@
         <v>3.5</v>
       </c>
       <c r="U54" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="V54" s="45">
@@ -38537,7 +38615,7 @@
         <v>9.15625</v>
       </c>
       <c r="AC54" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58498583569405094</v>
       </c>
       <c r="AD54" s="50">
@@ -38569,7 +38647,7 @@
         <v>4.5138888888888893</v>
       </c>
       <c r="AK54" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.54861111111111105</v>
       </c>
       <c r="AL54" s="54">
@@ -38601,7 +38679,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT54" s="62">
@@ -38633,7 +38711,7 @@
         <v>26.020833333333336</v>
       </c>
       <c r="BA54" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.44636524822695028</v>
       </c>
       <c r="BB54" s="68">
@@ -38665,7 +38743,7 @@
         <v>2</v>
       </c>
       <c r="BI54" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="BJ54" s="72">
@@ -38689,7 +38767,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="55" spans="3:66">
+    <row r="55" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C55" s="18" t="str">
         <v>SP24</v>
       </c>
@@ -38702,7 +38780,7 @@
         <v>69.650000000000006</v>
       </c>
       <c r="F55" s="55">
-        <f>IFERROR((D55-E55)/D55,0)</f>
+        <f t="shared" si="10"/>
         <v>0.31073725878278075</v>
       </c>
       <c r="G55" s="42">
@@ -38730,7 +38808,7 @@
         <v>3.5499999999999989</v>
       </c>
       <c r="M55" s="58">
-        <f>IFERROR((K55-L55)/K55,0)</f>
+        <f t="shared" si="11"/>
         <v>0.26041666666666713</v>
       </c>
       <c r="N55" s="21">
@@ -38762,7 +38840,7 @@
         <v>7.2</v>
       </c>
       <c r="U55" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.34545454545454546</v>
       </c>
       <c r="V55" s="45">
@@ -38794,7 +38872,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AC55" s="55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.2454545454545454</v>
       </c>
       <c r="AD55" s="50">
@@ -38826,7 +38904,7 @@
         <v>6.6000000000000005</v>
       </c>
       <c r="AK55" s="55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.41333333333333327</v>
       </c>
       <c r="AL55" s="54">
@@ -38858,7 +38936,7 @@
         <v>16</v>
       </c>
       <c r="AS55" s="55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AT55" s="62">
@@ -38890,7 +38968,7 @@
         <v>18.5</v>
       </c>
       <c r="BA55" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.31481481481481483</v>
       </c>
       <c r="BB55" s="68">
@@ -38922,7 +39000,7 @@
         <v>9.5</v>
       </c>
       <c r="BI55" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.20833333333333334</v>
       </c>
       <c r="BJ55" s="72">
@@ -38946,7 +39024,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="3:66">
+    <row r="56" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C56" s="18" t="str">
         <v>SP25</v>
       </c>
@@ -38959,7 +39037,7 @@
         <v>23.599999999999998</v>
       </c>
       <c r="F56" s="55">
-        <f>IFERROR((D56-E56)/D56,0)</f>
+        <f t="shared" si="10"/>
         <v>0.45995423340961106</v>
       </c>
       <c r="G56" s="42">
@@ -38987,7 +39065,7 @@
         <v>3.2999999999999994</v>
       </c>
       <c r="M56" s="58">
-        <f>IFERROR((K56-L56)/K56,0)</f>
+        <f t="shared" si="11"/>
         <v>0.29787234042553223</v>
       </c>
       <c r="N56" s="21">
@@ -39019,7 +39097,7 @@
         <v>1</v>
       </c>
       <c r="U56" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="V56" s="45">
@@ -39051,7 +39129,7 @@
         <v>2</v>
       </c>
       <c r="AC56" s="55">
-        <f t="shared" ref="AC56:AC57" si="15">IFERROR((AA56-AB56)/AA56,0)</f>
+        <f t="shared" ref="AC56:AC57" si="18">IFERROR((AA56-AB56)/AA56,0)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AD56" s="50">
@@ -39083,7 +39161,7 @@
         <v>1.3</v>
       </c>
       <c r="AK56" s="55">
-        <f t="shared" ref="AK56:AK57" si="16">IFERROR((AI56-AJ56)/AI56,0)</f>
+        <f t="shared" ref="AK56:AK57" si="19">IFERROR((AI56-AJ56)/AI56,0)</f>
         <v>0.74</v>
       </c>
       <c r="AL56" s="54">
@@ -39115,7 +39193,7 @@
         <v>3.5</v>
       </c>
       <c r="AS56" s="55">
-        <f t="shared" ref="AS56:AS57" si="17">IFERROR((AQ56-AR56)/AQ56,0)</f>
+        <f t="shared" ref="AS56:AS57" si="20">IFERROR((AQ56-AR56)/AQ56,0)</f>
         <v>0.5625</v>
       </c>
       <c r="AT56" s="62">
@@ -39147,7 +39225,7 @@
         <v>12</v>
       </c>
       <c r="BA56" s="55">
-        <f t="shared" ref="BA56:BA57" si="18">IFERROR((AY56-AZ56)/AY56,0)</f>
+        <f t="shared" ref="BA56:BA57" si="21">IFERROR((AY56-AZ56)/AY56,0)</f>
         <v>0.25</v>
       </c>
       <c r="BB56" s="68">
@@ -39179,7 +39257,7 @@
         <v>0.5</v>
       </c>
       <c r="BI56" s="55">
-        <f t="shared" ref="BI56:BI57" si="19">IFERROR((BG56-BH56)/BG56,0)</f>
+        <f t="shared" ref="BI56:BI57" si="22">IFERROR((BG56-BH56)/BG56,0)</f>
         <v>0.75</v>
       </c>
       <c r="BJ56" s="72">
@@ -39203,7 +39281,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="3:66" ht="15" customHeight="1">
+    <row r="57" spans="3:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C57" s="18" t="str">
         <v>SP26</v>
       </c>
@@ -39216,7 +39294,7 @@
         <v>87.55</v>
       </c>
       <c r="F57" s="55">
-        <f>IFERROR((D57-E57)/D57,0)</f>
+        <f t="shared" si="10"/>
         <v>0.32341576506955183</v>
       </c>
       <c r="G57" s="42">
@@ -39244,7 +39322,7 @@
         <v>2.9499999999999988</v>
       </c>
       <c r="M57" s="55">
-        <f>IFERROR((K57-L57)/K57,0)</f>
+        <f t="shared" si="11"/>
         <v>0.32954545454545497</v>
       </c>
       <c r="N57" s="21">
@@ -39276,7 +39354,7 @@
         <v>1</v>
       </c>
       <c r="U57" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="V57" s="45">
@@ -39308,7 +39386,7 @@
         <v>37</v>
       </c>
       <c r="AC57" s="55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.26</v>
       </c>
       <c r="AD57" s="50">
@@ -39340,7 +39418,7 @@
         <v>36.6</v>
       </c>
       <c r="AK57" s="55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.30943396226415093</v>
       </c>
       <c r="AL57" s="54">
@@ -39372,7 +39450,7 @@
         <v>5</v>
       </c>
       <c r="AS57" s="55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="AT57" s="62">
@@ -39404,7 +39482,7 @@
         <v>5</v>
       </c>
       <c r="BA57" s="55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="BB57" s="68">
@@ -39436,7 +39514,7 @@
         <v>0</v>
       </c>
       <c r="BI57" s="55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BJ57" s="72">
@@ -39460,15 +39538,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:66" ht="15" customHeight="1">
+    <row r="58" spans="3:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:66">
+    <row r="59" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C59" s="17"/>
     </row>
-    <row r="60" spans="3:66">
+    <row r="60" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
@@ -39481,36 +39559,36 @@
       <c r="L60" s="28"/>
       <c r="M60" s="28"/>
     </row>
-    <row r="61" spans="3:66">
+    <row r="61" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C61" s="17"/>
       <c r="G61" s="34"/>
       <c r="H61" s="34"/>
     </row>
-    <row r="62" spans="3:66">
+    <row r="62" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C62" s="17"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
     </row>
-    <row r="63" spans="3:66">
+    <row r="63" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C63" s="17"/>
       <c r="G63" s="34"/>
       <c r="H63" s="34"/>
     </row>
-    <row r="64" spans="3:66">
+    <row r="64" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C64" s="17"/>
       <c r="G64" s="34"/>
       <c r="H64" s="34"/>
     </row>
-    <row r="65" spans="3:13">
+    <row r="65" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C65" s="17"/>
     </row>
-    <row r="66" spans="3:13">
+    <row r="66" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C66" s="17"/>
     </row>
-    <row r="68" spans="3:13">
+    <row r="68" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C68" s="17"/>
     </row>
-    <row r="69" spans="3:13">
+    <row r="69" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C69" s="28"/>
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
@@ -39523,39 +39601,39 @@
       <c r="L69" s="28"/>
       <c r="M69" s="28"/>
     </row>
-    <row r="70" spans="3:13">
+    <row r="70" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C70" s="17"/>
       <c r="G70" s="34"/>
       <c r="H70" s="34"/>
     </row>
-    <row r="71" spans="3:13">
+    <row r="71" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C71" s="17"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
     </row>
-    <row r="72" spans="3:13">
+    <row r="72" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C72" s="17"/>
       <c r="G72" s="34"/>
       <c r="H72" s="34"/>
     </row>
-    <row r="73" spans="3:13">
+    <row r="73" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C73" s="17"/>
       <c r="G73" s="34"/>
       <c r="H73" s="34"/>
     </row>
-    <row r="74" spans="3:13">
+    <row r="74" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C74" s="17"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
     </row>
-    <row r="75" spans="3:13">
+    <row r="75" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C75" s="17"/>
     </row>
-    <row r="77" spans="3:13"/>
-    <row r="78" spans="3:13"/>
-    <row r="79" spans="3:13"/>
-    <row r="80" spans="3:13"/>
-    <row r="81"/>
+    <row r="77" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C14:I20">
     <sortCondition descending="1" ref="G14:G20"/>
@@ -39934,15 +40012,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
@@ -39954,6 +40023,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40158,13 +40236,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E99ECB8B-6C19-4004-8E31-48D69C25D797}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E99ECB8B-6C19-4004-8E31-48D69C25D797}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>